--- a/data/trans_dic/P16A_n_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01373331044934959</v>
+        <v>0.01316878127584301</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0345383010385358</v>
+        <v>0.03496034806484079</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02090605266785831</v>
+        <v>0.02179129310205288</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05383048994834994</v>
+        <v>0.05354339234125977</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08586657284290017</v>
+        <v>0.08511385817810237</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1279473607538911</v>
+        <v>0.1308325274877214</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08288705103119073</v>
+        <v>0.08229559985641147</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1040023833521523</v>
+        <v>0.09949506638814508</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05277718894427751</v>
+        <v>0.0499322138459481</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.08575460388508982</v>
+        <v>0.08568337771413873</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05641551408046376</v>
+        <v>0.05568902984541027</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.08709081073089135</v>
+        <v>0.08991778233036228</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04032293125375171</v>
+        <v>0.04018242804106367</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07673226588209525</v>
+        <v>0.07750978687595438</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06217703549550222</v>
+        <v>0.06190028690936751</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1507212578835951</v>
+        <v>0.1526627355702333</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1393595417012866</v>
+        <v>0.1416890484654968</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1951935332627757</v>
+        <v>0.2007359484240248</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.142180804828257</v>
+        <v>0.14312932651635</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2140664570766138</v>
+        <v>0.2204072066706104</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08573882151798387</v>
+        <v>0.08245571508778102</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1263892516088986</v>
+        <v>0.1239534342275967</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09260135821170787</v>
+        <v>0.09115602822896819</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1590238374648897</v>
+        <v>0.1595956336765776</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02594287124881759</v>
+        <v>0.02585041899408855</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07689587584614148</v>
+        <v>0.07712993611846976</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05901774125889885</v>
+        <v>0.05596888405834546</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09143132722708001</v>
+        <v>0.08987779759428965</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1130662059305849</v>
+        <v>0.116932338443016</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1729325413993648</v>
+        <v>0.168620663301737</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1186708267950439</v>
+        <v>0.1191081290253145</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1418553226244446</v>
+        <v>0.1422509345916998</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07071141029537022</v>
+        <v>0.07014745393157044</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1295062575030919</v>
+        <v>0.1256151754726774</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09425974768623832</v>
+        <v>0.09463858049297078</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1273960648321935</v>
+        <v>0.1256710231066259</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05377961168688514</v>
+        <v>0.05221517000869778</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1264430429933048</v>
+        <v>0.125609865740881</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1042430227433375</v>
+        <v>0.09925231413799389</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1690715607129886</v>
+        <v>0.1732066535637926</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1693423256287951</v>
+        <v>0.1724600834583385</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2423131990383321</v>
+        <v>0.2367456143164253</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1779642627298936</v>
+        <v>0.1769082116450372</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2127903650363167</v>
+        <v>0.2145177816271054</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1019219700404945</v>
+        <v>0.1008982132013937</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.168552408934243</v>
+        <v>0.1677656637171483</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1302180532493217</v>
+        <v>0.1320807704732265</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1804933055392308</v>
+        <v>0.1804275653704745</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06347177798955521</v>
+        <v>0.06419650092009363</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1010321299857554</v>
+        <v>0.1024700290331637</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0801465293481029</v>
+        <v>0.07697192760526363</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.113563709239877</v>
+        <v>0.1095252838924803</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1189766723605142</v>
+        <v>0.1195278064724526</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2116270841881221</v>
+        <v>0.2103710585062161</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1465912347087697</v>
+        <v>0.1465681530666198</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1888230908545558</v>
+        <v>0.1930193811748326</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09980527116058591</v>
+        <v>0.09825192528180705</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1632407833206856</v>
+        <v>0.1649734568887086</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1204958384856286</v>
+        <v>0.1205697774216934</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1597341311347757</v>
+        <v>0.1594523234898359</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1050404659022517</v>
+        <v>0.1059823537646765</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1545976322375188</v>
+        <v>0.1558943327976458</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1302220831245453</v>
+        <v>0.1259133448357376</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1719652878631409</v>
+        <v>0.1677272865752261</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1742306474181008</v>
+        <v>0.1764467891183684</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2802073260578711</v>
+        <v>0.2765652473099617</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2051343150134179</v>
+        <v>0.2037378682857753</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2472797720192314</v>
+        <v>0.2458000759522678</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1364943422569208</v>
+        <v>0.1350605853776541</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2092471378770044</v>
+        <v>0.2091243899694183</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1585190057218327</v>
+        <v>0.1581852103065134</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.200447141118485</v>
+        <v>0.1998732353337208</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.1911948168676501</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2656308136106686</v>
+        <v>0.2656308136106685</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2332836174689531</v>
@@ -1105,7 +1105,7 @@
         <v>0.2325921097747369</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3022260666968358</v>
+        <v>0.3022260666968359</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1229249018844606</v>
+        <v>0.1188955834321593</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1461938241660967</v>
+        <v>0.1452119121046126</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1607680206329858</v>
+        <v>0.1631388494859302</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2351279406296121</v>
+        <v>0.2331186968186677</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1977338807458127</v>
+        <v>0.1989308933041828</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2921460003024061</v>
+        <v>0.2932917910444851</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2355291402746526</v>
+        <v>0.2385162340461758</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3130058836178716</v>
+        <v>0.3108764361275938</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1674534291537478</v>
+        <v>0.1691718875745393</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.227536225656964</v>
+        <v>0.2269892269500285</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2071196015261645</v>
+        <v>0.2091521170573299</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2805009662644163</v>
+        <v>0.2797747565950577</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1850079987132417</v>
+        <v>0.1864528910707318</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2113700113665546</v>
+        <v>0.208406197143036</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2262440870822306</v>
+        <v>0.2282024135529609</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3018190355639079</v>
+        <v>0.3013180652440951</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2704615759495123</v>
+        <v>0.270261185533458</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3658854274388193</v>
+        <v>0.3733438921152923</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3141213291286572</v>
+        <v>0.307101885838283</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.367362020073667</v>
+        <v>0.3653441160349059</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2177604775219728</v>
+        <v>0.2216962398966214</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2809549150554036</v>
+        <v>0.2801843494365797</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2564753195937842</v>
+        <v>0.2562762539734013</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3235466104579083</v>
+        <v>0.325000655295129</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.523701474580091</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.5185891814196871</v>
+        <v>0.5185891814196872</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.393181100258774</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2962722097773948</v>
+        <v>0.2970847462031403</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3580089095060752</v>
+        <v>0.36288047536943</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3014728988249858</v>
+        <v>0.3052265233479503</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3761729429265185</v>
+        <v>0.3775707459117857</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3888321253343349</v>
+        <v>0.3934912374474107</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5144682613915061</v>
+        <v>0.5167366865691014</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4797270578410066</v>
+        <v>0.4739458232030884</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4862350784607986</v>
+        <v>0.4894233334761891</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3576863619458852</v>
+        <v>0.3617180001473476</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4526464035643749</v>
+        <v>0.4541383922506912</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4022573857391136</v>
+        <v>0.4032412562844497</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4415675114478418</v>
+        <v>0.4379538937573392</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3891869321950777</v>
+        <v>0.3956009473576361</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4599506677170773</v>
+        <v>0.4584982082316691</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3912006124253282</v>
+        <v>0.3923755088820119</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4496396287796476</v>
+        <v>0.4500338718113199</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4872664176975325</v>
+        <v>0.4948688038593204</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6131377830098864</v>
+        <v>0.6159110190306005</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5684442632243494</v>
+        <v>0.5722650852013831</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5488505579327717</v>
+        <v>0.5505682680028369</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.428654677292035</v>
+        <v>0.4283831346901916</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5220400275364322</v>
+        <v>0.5222099496598229</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4680330710014733</v>
+        <v>0.4704618262188905</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4912057817237537</v>
+        <v>0.4888833599461938</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3880644528352614</v>
+        <v>0.3890035313142849</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6032440348533179</v>
+        <v>0.6099192591483872</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4666201337319984</v>
+        <v>0.4750184120541785</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4851221090967565</v>
+        <v>0.4792484979722826</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5979260844419481</v>
+        <v>0.5995687230766072</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.6928505514995933</v>
+        <v>0.6859152884109363</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.5951666403624836</v>
+        <v>0.5895539149460057</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.636811420684308</v>
+        <v>0.6390955439929741</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.5164220700156203</v>
+        <v>0.516647791072253</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.6665608410687749</v>
+        <v>0.669121272298187</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.5526427797674626</v>
+        <v>0.5525632819108032</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.5725030776892361</v>
+        <v>0.5732684960967186</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5008713608907962</v>
+        <v>0.5005007991445977</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.716025977878496</v>
+        <v>0.7227567535669072</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5779414018329639</v>
+        <v>0.5821530213261484</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5690116611166167</v>
+        <v>0.5639523098402853</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6950830109625399</v>
+        <v>0.696304260247828</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7836755512798627</v>
+        <v>0.7825932493075087</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.6937671268029975</v>
+        <v>0.6897693901563556</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.7001114899436027</v>
+        <v>0.7003827351787519</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5935743749502174</v>
+        <v>0.5940210237434381</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.7381371013772159</v>
+        <v>0.7400322722214683</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.6306373718743842</v>
+        <v>0.6265720097438223</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.6260993023005649</v>
+        <v>0.6275805679931362</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.7767680218733951</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.8066316925554123</v>
+        <v>0.8066316925554122</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.7028145953413464</v>
@@ -1513,7 +1513,7 @@
         <v>0.7539541616638262</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.7555730096482994</v>
+        <v>0.7555730096482993</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5937662029890616</v>
+        <v>0.5945292113133476</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7393737258050505</v>
+        <v>0.7408259440665277</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6632386036316651</v>
+        <v>0.6659794536150841</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6288680065459564</v>
+        <v>0.6338152458065126</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6801170262345111</v>
+        <v>0.6750682007926233</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8367464571276927</v>
+        <v>0.8362925131989618</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7245342520708071</v>
+        <v>0.7289940526218734</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7780262097004151</v>
+        <v>0.7768697142878305</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6619570492245817</v>
+        <v>0.6599269751963063</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.8125242753351429</v>
+        <v>0.8121647975763283</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.7178332278803611</v>
+        <v>0.715535233024206</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.7311037263341458</v>
+        <v>0.7314142472531681</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7215026008814076</v>
+        <v>0.7201664692865011</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8441734628984801</v>
+        <v>0.8456509459418627</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7681750369069232</v>
+        <v>0.7639714216611906</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7210339155222006</v>
+        <v>0.723414285220387</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7843225324900487</v>
+        <v>0.7768940521072001</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9087281806568523</v>
+        <v>0.9090865775522811</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8224054015723682</v>
+        <v>0.8235569536774132</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8343574013539365</v>
+        <v>0.8325746477217412</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7429937502743833</v>
+        <v>0.7384636364378822</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.8697351518819195</v>
+        <v>0.8707408163796548</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.7891371163739592</v>
+        <v>0.788275992921925</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.7796704538860481</v>
+        <v>0.7796671463474042</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.3480945393985906</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.4044272088066748</v>
+        <v>0.4044272088066747</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.2371808704929737</v>
@@ -1649,7 +1649,7 @@
         <v>0.2900753972318618</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.3518555473516288</v>
+        <v>0.3518555473516289</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.162167081398725</v>
+        <v>0.1618109975640701</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2359163946098933</v>
+        <v>0.2363552998640854</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2143130378385566</v>
+        <v>0.2140421273941102</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2817844337124596</v>
+        <v>0.279672693088771</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2820041681539491</v>
+        <v>0.2809607638758289</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3845994062765402</v>
+        <v>0.3836209088048492</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.3310209156712248</v>
+        <v>0.330394044515654</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3892165264919744</v>
+        <v>0.3895839724207166</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2275471858814417</v>
+        <v>0.2270608141665972</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.3153037823008362</v>
+        <v>0.3162000005884409</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.278651129595837</v>
+        <v>0.2796680095254647</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.3412208082512383</v>
+        <v>0.3395609369117333</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1876550404954107</v>
+        <v>0.1882087690837782</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2685533183889923</v>
+        <v>0.2694024069474839</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2432211743021607</v>
+        <v>0.2425915834669733</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3125834626981234</v>
+        <v>0.313039322144691</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3127551671621425</v>
+        <v>0.3130232135071188</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4179212969313246</v>
+        <v>0.4175928916533557</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3658697484075641</v>
+        <v>0.3644753589976356</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.4169880532585944</v>
+        <v>0.4186461278401625</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2487050156102262</v>
+        <v>0.2483965652012778</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3399503918535019</v>
+        <v>0.3384073384178909</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3018608980188818</v>
+        <v>0.3014701974636741</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3614358832386632</v>
+        <v>0.362074918592791</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6785</v>
+        <v>6506</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15685</v>
+        <v>15877</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8769</v>
+        <v>9141</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>21952</v>
+        <v>21835</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>40142</v>
+        <v>39790</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>55047</v>
+        <v>56288</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>32803</v>
+        <v>32569</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>37702</v>
+        <v>36068</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>50748</v>
+        <v>48012</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>75839</v>
+        <v>75776</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>45991</v>
+        <v>45399</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>67086</v>
+        <v>69264</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19922</v>
+        <v>19853</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34848</v>
+        <v>35201</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26081</v>
+        <v>25965</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>61463</v>
+        <v>62255</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>65149</v>
+        <v>66238</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>83978</v>
+        <v>86363</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>56269</v>
+        <v>56644</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>77602</v>
+        <v>79900</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>82442</v>
+        <v>79286</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>111776</v>
+        <v>109621</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>75490</v>
+        <v>74312</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>122497</v>
+        <v>122937</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>19081</v>
+        <v>19013</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>52834</v>
+        <v>52995</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>34850</v>
+        <v>33049</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>43603</v>
+        <v>42862</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>70722</v>
+        <v>73140</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>105533</v>
+        <v>102902</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>66876</v>
+        <v>67123</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>71173</v>
+        <v>71372</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>96237</v>
+        <v>95469</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>168014</v>
+        <v>162966</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>108780</v>
+        <v>109217</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>124673</v>
+        <v>122985</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>39554</v>
+        <v>38404</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>86877</v>
+        <v>86305</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>61555</v>
+        <v>58608</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>80629</v>
+        <v>82601</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>105923</v>
+        <v>107873</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>147873</v>
+        <v>144475</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>100291</v>
+        <v>99696</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>106764</v>
+        <v>107631</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>138714</v>
+        <v>137321</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>218670</v>
+        <v>217649</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>150277</v>
+        <v>152426</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>176635</v>
+        <v>176571</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>40537</v>
+        <v>41000</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>68890</v>
+        <v>69871</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>53626</v>
+        <v>51502</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>70505</v>
+        <v>67997</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>82063</v>
+        <v>82444</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>150435</v>
+        <v>149542</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>96953</v>
+        <v>96938</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>117673</v>
+        <v>120288</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>132583</v>
+        <v>130519</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>227347</v>
+        <v>229761</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>160318</v>
+        <v>160416</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>198714</v>
+        <v>198363</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>67086</v>
+        <v>67688</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>105414</v>
+        <v>106299</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>87131</v>
+        <v>84248</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>106762</v>
+        <v>104131</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>120175</v>
+        <v>121703</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>199185</v>
+        <v>196596</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>135673</v>
+        <v>134749</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>154103</v>
+        <v>153181</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>181321</v>
+        <v>179416</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>291421</v>
+        <v>291250</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>210907</v>
+        <v>210463</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>249362</v>
+        <v>248648</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>63816</v>
+        <v>61724</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>89853</v>
+        <v>89250</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>103864</v>
+        <v>105396</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>164735</v>
+        <v>163327</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>101960</v>
+        <v>102577</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>180020</v>
+        <v>180726</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>152877</v>
+        <v>154815</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>230650</v>
+        <v>229080</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>173279</v>
+        <v>175057</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>280055</v>
+        <v>279382</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>268246</v>
+        <v>270878</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>403221</v>
+        <v>402177</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>96046</v>
+        <v>96796</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>129912</v>
+        <v>128090</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>146165</v>
+        <v>147430</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>211460</v>
+        <v>211109</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>139461</v>
+        <v>139358</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>225458</v>
+        <v>230054</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>203889</v>
+        <v>199333</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>270704</v>
+        <v>269217</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>225336</v>
+        <v>229409</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>345804</v>
+        <v>344855</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>332168</v>
+        <v>331910</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>465100</v>
+        <v>467190</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>114571</v>
+        <v>114886</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>153739</v>
+        <v>155831</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>144079</v>
+        <v>145873</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>229219</v>
+        <v>230071</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>157083</v>
+        <v>158965</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>230379</v>
+        <v>231395</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>238352</v>
+        <v>235480</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>296047</v>
+        <v>297988</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>282821</v>
+        <v>286009</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>397075</v>
+        <v>398383</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>392107</v>
+        <v>393066</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>537918</v>
+        <v>533516</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>150502</v>
+        <v>152983</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>197516</v>
+        <v>196892</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>186962</v>
+        <v>187523</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>273986</v>
+        <v>274226</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>196849</v>
+        <v>199920</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>274563</v>
+        <v>275805</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>282431</v>
+        <v>284329</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>334170</v>
+        <v>335216</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>338936</v>
+        <v>338721</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>457949</v>
+        <v>458098</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>456223</v>
+        <v>458591</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>598388</v>
+        <v>595559</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>113541</v>
+        <v>113816</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>186877</v>
+        <v>188944</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>156005</v>
+        <v>158813</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>197484</v>
+        <v>195092</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>205049</v>
+        <v>205613</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>245266</v>
+        <v>242811</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>224831</v>
+        <v>222711</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>279666</v>
+        <v>280669</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>328195</v>
+        <v>328338</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>442451</v>
+        <v>444151</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>393533</v>
+        <v>393476</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>484478</v>
+        <v>485126</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>146546</v>
+        <v>146438</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>221815</v>
+        <v>223900</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>193223</v>
+        <v>194631</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>231633</v>
+        <v>229574</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>238368</v>
+        <v>238786</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>277418</v>
+        <v>277035</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>262079</v>
+        <v>260569</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>307465</v>
+        <v>307584</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>377227</v>
+        <v>377510</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>489962</v>
+        <v>491220</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>449072</v>
+        <v>446177</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>529834</v>
+        <v>531088</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>124621</v>
+        <v>124782</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>184733</v>
+        <v>185096</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>170451</v>
+        <v>171155</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>195074</v>
+        <v>196608</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>227097</v>
+        <v>225411</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>325477</v>
+        <v>325300</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>289936</v>
+        <v>291721</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>361478</v>
+        <v>360941</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>359966</v>
+        <v>358862</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>519065</v>
+        <v>518835</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>471736</v>
+        <v>470226</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>566464</v>
+        <v>566705</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>151431</v>
+        <v>151151</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>210918</v>
+        <v>211287</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>197419</v>
+        <v>196339</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>223663</v>
+        <v>224402</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>261892</v>
+        <v>259411</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>353476</v>
+        <v>353616</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>329101</v>
+        <v>329562</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>387650</v>
+        <v>386822</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>404033</v>
+        <v>401570</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>555613</v>
+        <v>556255</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>518595</v>
+        <v>518029</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>604094</v>
+        <v>604092</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>531347</v>
+        <v>530181</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>808433</v>
+        <v>809937</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>727453</v>
+        <v>726534</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>995477</v>
+        <v>988017</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>952948</v>
+        <v>949422</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1368524</v>
+        <v>1365042</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1173318</v>
+        <v>1171096</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1454484</v>
+        <v>1455857</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1514495</v>
+        <v>1511258</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>2202425</v>
+        <v>2208685</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1933530</v>
+        <v>1940586</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>2480578</v>
+        <v>2468512</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>614860</v>
+        <v>616674</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>920273</v>
+        <v>923183</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>825578</v>
+        <v>823441</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>1104283</v>
+        <v>1105893</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1056861</v>
+        <v>1057767</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1487093</v>
+        <v>1485925</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1296841</v>
+        <v>1291898</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1558265</v>
+        <v>1564461</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1655316</v>
+        <v>1653263</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>2374583</v>
+        <v>2363805</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>2094580</v>
+        <v>2091869</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>2627536</v>
+        <v>2632182</v>
       </c>
     </row>
     <row r="36">
